--- a/ovary_stats.xlsx
+++ b/ovary_stats.xlsx
@@ -1448,73 +1448,73 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>16.06341807108275</v>
+        <v>15.85638515958219</v>
       </c>
       <c r="F4" t="n">
-        <v>1.113520318042727</v>
+        <v>1.035985783041232</v>
       </c>
       <c r="G4" t="n">
-        <v>15.23528642508054</v>
+        <v>14.89943443887979</v>
       </c>
       <c r="H4" t="n">
-        <v>15.43048142005845</v>
+        <v>15.40321241818091</v>
       </c>
       <c r="I4" t="n">
-        <v>15.62567641503636</v>
+        <v>15.59840741315882</v>
       </c>
       <c r="J4" t="n">
-        <v>16.47748389408385</v>
+        <v>16.05158015456011</v>
       </c>
       <c r="K4" t="n">
         <v>17.32929137313133</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>19.77932092270183</v>
+        <v>19.43074970151516</v>
       </c>
       <c r="N4" t="n">
-        <v>2.711936181772364</v>
+        <v>2.327761773041207</v>
       </c>
       <c r="O4" t="n">
         <v>18.04817691180584</v>
       </c>
       <c r="P4" t="n">
-        <v>18.2166064748805</v>
+        <v>18.14331576257711</v>
       </c>
       <c r="Q4" t="n">
         <v>18.38503603795516</v>
       </c>
       <c r="R4" t="n">
-        <v>20.64489292814982</v>
+        <v>19.67246997689321</v>
       </c>
       <c r="S4" t="n">
         <v>22.90474981834448</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>23.25400489242253</v>
+        <v>22.78301885253688</v>
       </c>
       <c r="V4" t="n">
-        <v>3.347523908073583</v>
+        <v>3.060001819657683</v>
       </c>
       <c r="W4" t="n">
-        <v>21.27296788600911</v>
+        <v>20.14183710066337</v>
       </c>
       <c r="X4" t="n">
-        <v>21.32151430944453</v>
+        <v>20.99018518967267</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.37006073287996</v>
+        <v>21.93562612555283</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.24452339562923</v>
+        <v>23.72845978841703</v>
       </c>
       <c r="AA4" t="n">
         <v>27.11898605837851</v>
@@ -1540,154 +1540,154 @@
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.190586821339781</v>
+        <v>6.92663369295469</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.264051930769058</v>
+        <v>2.055932201174247</v>
       </c>
       <c r="AU4" t="n">
-        <v>5.647291470972744</v>
+        <v>5.242402661783577</v>
       </c>
       <c r="AV4" t="n">
-        <v>5.891032889386082</v>
+        <v>5.546069268675453</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.13477430779942</v>
+        <v>6.337218712394003</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.962234496523299</v>
+        <v>7.717783136673241</v>
       </c>
       <c r="AY4" t="n">
         <v>9.789694685247177</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>3.715902851619082</v>
+        <v>3.574364541932967</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.650964285945993</v>
+        <v>1.381235801940727</v>
       </c>
       <c r="BC4" t="n">
         <v>2.422500496769475</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.786125054822049</v>
+        <v>2.873553838038495</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.149749612874624</v>
+        <v>3.149749612874622</v>
       </c>
       <c r="BF4" t="n">
-        <v>4.362604029043886</v>
+        <v>3.850560316769094</v>
       </c>
       <c r="BG4" t="n">
         <v>5.575458445213147</v>
       </c>
       <c r="BH4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI4" t="n">
-        <v>3.163930337326188</v>
+        <v>2.899977208941098</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.264051930769058</v>
+        <v>2.055932201174247</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.620634986959152</v>
+        <v>1.215746177769985</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.864376405372489</v>
+        <v>1.51941278466186</v>
       </c>
       <c r="BM4" t="n">
-        <v>2.108117823785827</v>
+        <v>2.310562228380411</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.935578012509706</v>
+        <v>3.691126652659648</v>
       </c>
       <c r="BO4" t="n">
         <v>5.763038201233584</v>
       </c>
       <c r="BP4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3.454428139677977</v>
+        <v>3.312889829991862</v>
       </c>
       <c r="BR4" t="n">
-        <v>1.650964285945993</v>
+        <v>1.381235801940727</v>
       </c>
       <c r="BS4" t="n">
         <v>2.16102578482837</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.524650342880944</v>
+        <v>2.61207912609739</v>
       </c>
       <c r="BU4" t="n">
-        <v>2.888274900933519</v>
+        <v>2.888274900933517</v>
       </c>
       <c r="BV4" t="n">
-        <v>4.101129317102781</v>
+        <v>3.589085604827989</v>
       </c>
       <c r="BW4" t="n">
         <v>5.313983733272043</v>
       </c>
       <c r="BX4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1918519727566964</v>
+        <v>0.2247786069507456</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.157270648034977</v>
+        <v>0.1870609715601037</v>
       </c>
       <c r="CA4" t="n">
         <v>0.01841419064982339</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.1251818079321515</v>
+        <v>0.09832174606253023</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.2319494252144796</v>
+        <v>0.225074950136276</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.2785708638101329</v>
+        <v>0.3515318110244913</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.3251923024057861</v>
+        <v>0.4305503368806072</v>
       </c>
       <c r="CF4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.1279334035886979</v>
+        <v>0.1299733728859163</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.09942160736410165</v>
+        <v>0.08184749272893087</v>
       </c>
       <c r="CI4" t="n">
         <v>0.02513804502774283</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.08010149081906118</v>
+        <v>0.09912146140571043</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.1350649366103795</v>
+        <v>0.1355791086939757</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.1793310828691754</v>
+        <v>0.1664310201741815</v>
       </c>
       <c r="CM4" t="n">
         <v>0.2235972291279712</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.09080025097862088</v>
+        <v>0.09353048578005187</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.05740109177492937</v>
+        <v>0.04092374636446543</v>
       </c>
       <c r="CP4" t="inlineStr">
         <is>
